--- a/backend/reports/xlsx/Tab_51_rpt_PF_ADIExport.xlsx
+++ b/backend/reports/xlsx/Tab_51_rpt_PF_ADIExport.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robrien/work/gdx-agreements-tracker/backend/reports/xlsx/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aspiteri/Development/Github/gdx-agreements-tracker/backend/reports/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25B49A29-BD06-9C40-8374-D2DBA9FF66E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76EAEEE7-FE0F-6E4B-A338-498F9EAB86A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="21100" xr2:uid="{FB9893AD-F19A-BB4E-A83D-FCCFB21F8723}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="26660" xr2:uid="{FB9893AD-F19A-BB4E-A83D-FCCFB21F8723}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>{#r=d.report[i]}</t>
   </si>
@@ -57,15 +57,6 @@
   </si>
   <si>
     <t>Portfolio</t>
-  </si>
-  <si>
-    <t>Category</t>
-  </si>
-  <si>
-    <t>Period</t>
-  </si>
-  <si>
-    <t>Preparer</t>
   </si>
   <si>
     <t>Cl</t>
@@ -107,18 +98,6 @@
 Description</t>
   </si>
   <si>
-    <t>Journal 
-Name</t>
-  </si>
-  <si>
-    <t>Batch 
-Description</t>
-  </si>
-  <si>
-    <t>Batch 
-Name</t>
-  </si>
-  <si>
     <t>Accounting 
 Date</t>
   </si>
@@ -139,30 +118,12 @@
     <t xml:space="preserve">{$r.portfolio} </t>
   </si>
   <si>
-    <t xml:space="preserve">{$r.category} </t>
-  </si>
-  <si>
     <t xml:space="preserve">{$r.accounting_date} </t>
   </si>
   <si>
-    <t xml:space="preserve">{$r.period} </t>
-  </si>
-  <si>
-    <t xml:space="preserve">{$r.batch_name} </t>
-  </si>
-  <si>
-    <t xml:space="preserve">{$r.batch_desc} </t>
-  </si>
-  <si>
-    <t xml:space="preserve">{$r.journal_name} </t>
-  </si>
-  <si>
     <t xml:space="preserve">{$r.journal_desc} </t>
   </si>
   <si>
-    <t xml:space="preserve">{$r.preparer} </t>
-  </si>
-  <si>
     <t xml:space="preserve">{$r.expense_authority_name} </t>
   </si>
   <si>
@@ -187,16 +148,16 @@
     <t xml:space="preserve">{$r.fut} </t>
   </si>
   <si>
+    <t xml:space="preserve">{$r.line_desc} </t>
+  </si>
+  <si>
+    <t xml:space="preserve">{$r1.fiscal_year} </t>
+  </si>
+  <si>
     <t xml:space="preserve">{$r.debit} </t>
   </si>
   <si>
-    <t xml:space="preserve">{$r.credit} </t>
-  </si>
-  <si>
-    <t xml:space="preserve">{$r.line_desc} </t>
-  </si>
-  <si>
-    <t xml:space="preserve">{$r1.fiscal_year} </t>
+    <t xml:space="preserve">{$r.credit:add(9999999)} </t>
   </si>
 </sst>
 </file>
@@ -320,7 +281,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -343,9 +304,6 @@
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -375,6 +333,10 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -455,9 +417,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -495,7 +457,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -601,7 +563,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -743,7 +705,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -754,10 +716,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:V12"/>
+  <dimension ref="A1:P12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="108" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="239" workbookViewId="0">
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -765,50 +727,39 @@
     <col min="1" max="1" width="11.1640625" customWidth="1"/>
     <col min="2" max="2" width="7.6640625" customWidth="1"/>
     <col min="3" max="3" width="8.33203125" customWidth="1"/>
-    <col min="4" max="4" width="8.6640625" customWidth="1"/>
-    <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="29.33203125" customWidth="1"/>
-    <col min="11" max="11" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="16" width="9.5" customWidth="1"/>
-    <col min="17" max="19" width="5.6640625" customWidth="1"/>
-    <col min="20" max="21" width="9.83203125" customWidth="1"/>
-    <col min="22" max="22" width="55.5" customWidth="1"/>
+    <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.33203125" customWidth="1"/>
+    <col min="6" max="6" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="9.5" customWidth="1"/>
+    <col min="11" max="13" width="5.6640625" customWidth="1"/>
+    <col min="14" max="14" width="16" style="19" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.83203125" style="19" customWidth="1"/>
+    <col min="16" max="16" width="55.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="1" customFormat="1" ht="57" customHeight="1" thickBot="1">
+    <row r="1" spans="1:16" s="1" customFormat="1" ht="57" customHeight="1" thickBot="1">
       <c r="A1" s="4"/>
       <c r="B1" s="4"/>
       <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="9"/>
-      <c r="R1" s="9"/>
-      <c r="S1" s="9"/>
-      <c r="T1" s="9"/>
-      <c r="U1" s="9"/>
-      <c r="V1" s="9"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="4"/>
     </row>
-    <row r="2" spans="1:22" s="8" customFormat="1" ht="33" thickBot="1">
+    <row r="2" spans="1:16" s="8" customFormat="1" ht="33" thickBot="1">
       <c r="A2" s="7" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>5</v>
@@ -816,182 +767,140 @@
       <c r="C2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="H2" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="N2" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="O2" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="P2" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" s="2" customFormat="1" ht="20" thickBot="1">
+      <c r="A3" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="H2" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="I2" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="J2" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="K2" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="L2" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="M2" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="N2" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="O2" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="P2" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q2" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="R2" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="S2" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="T2" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="U2" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="V2" s="11" t="s">
-        <v>20</v>
+      <c r="E3" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="K3" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="L3" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="M3" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="N3" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="O3" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="P3" s="16" t="s">
+        <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:22" s="2" customFormat="1" ht="20" thickBot="1">
-      <c r="A3" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="G3" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="H3" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="I3" s="13" t="s">
+    <row r="4" spans="1:16" s="2" customFormat="1" ht="20" thickBot="1">
+      <c r="A4" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="J3" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="K3" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="L3" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="M3" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="N3" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="O3" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="P3" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q3" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="R3" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="S3" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="T3" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="U3" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="V3" s="17" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" s="2" customFormat="1" ht="20" thickBot="1">
-      <c r="A4" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="B4" s="16"/>
-      <c r="C4" s="13"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="12"/>
       <c r="D4" s="13"/>
       <c r="E4" s="14"/>
       <c r="F4" s="14"/>
       <c r="G4" s="14"/>
       <c r="H4" s="14"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
-      <c r="N4" s="15"/>
-      <c r="O4" s="15"/>
-      <c r="P4" s="15"/>
-      <c r="Q4" s="15"/>
-      <c r="R4" s="15"/>
-      <c r="S4" s="15"/>
-      <c r="T4" s="15"/>
-      <c r="U4" s="15"/>
-      <c r="V4" s="18"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="17"/>
     </row>
-    <row r="7" spans="1:22">
+    <row r="7" spans="1:16">
       <c r="A7" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:22">
+    <row r="8" spans="1:16">
       <c r="A8" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:22">
+    <row r="9" spans="1:16">
       <c r="A9" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:22">
+    <row r="10" spans="1:16">
       <c r="A10" s="3"/>
     </row>
-    <row r="11" spans="1:22">
+    <row r="11" spans="1:16">
       <c r="A11" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:22">
+    <row r="12" spans="1:16">
       <c r="A12" s="3" t="s">
         <v>3</v>
       </c>
